--- a/data/trans_bre/P53_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,7</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,45</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>74,24%</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>105,28%</t>
+          <t>54,74%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35,33%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-31,91%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 25,18</t>
+          <t>-8,97; 33,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 21,43</t>
+          <t>-23,93; 22,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 28,6</t>
+          <t>-12,06; 29,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 31,14</t>
+          <t>-16,2; 27,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 358,62</t>
+          <t>-22,85; 10,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,54; 267,15</t>
+          <t>-57,17; 801,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 366,78</t>
+          <t>-73,86; 348,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 452,05</t>
+          <t>-49,1; 537,65</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-57,87; 387,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-17,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-15,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-20,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-21,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,8%</t>
+          <t>-7,95</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,84%</t>
+          <t>-65,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-19,69%</t>
+          <t>-53,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>-55,93%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-52,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-36,08%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 9,51</t>
+          <t>-45,55; 1,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 8,48</t>
+          <t>-44,46; 3,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 11,74</t>
+          <t>-48,78; 6,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 14,78</t>
+          <t>-53,55; 9,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,09; 102,3</t>
+          <t>-40,92; 10,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,94; 94,55</t>
+          <t>-95,66; 23,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,87; 97,93</t>
+          <t>-91,39; 31,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,84; 120,67</t>
+          <t>-89,36; 56,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-86,76; 90,7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-88,83; 125,74</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>-9,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-20,02</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,05</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-40,5%</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-60,19%</t>
+          <t>-59,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-39,62%</t>
+          <t>-54,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-55,13%</t>
+          <t>-34,63%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-28,7%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-61,75%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 2,38</t>
+          <t>-22,73; 0,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,47; -5,2</t>
+          <t>-23,54; 0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 2,47</t>
+          <t>-16,13; 6,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,37; -1,55</t>
+          <t>-15,82; 6,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-70,31; 26,08</t>
+          <t>-16,98; 2,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,08; -21,17</t>
+          <t>-86,03; 16,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-73,54; 26,1</t>
+          <t>-83,21; 17,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-79,39; -9,05</t>
+          <t>-78,98; 115,6</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-83,82; 159,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,12</t>
+          <t>14,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,54</t>
+          <t>19,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>111,86%</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>154,93%</t>
+          <t>255,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>123,63%</t>
+          <t>361,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>324,87%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>238,15%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>478,2%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 21,63</t>
+          <t>4,85; 24,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 25,48</t>
+          <t>9,44; 29,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 22,84</t>
+          <t>3,66; 22,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 20,95</t>
+          <t>3,58; 22,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 318,74</t>
+          <t>5,59; 22,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,1; 385,96</t>
+          <t>17,11; 1218,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,63; 361,37</t>
+          <t>64,96; 1634,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 226,35</t>
+          <t>17,54; 1579,34</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 1099,12</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18,51; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,85%</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,66%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>-6,96%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>51,6%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 10,04</t>
+          <t>-18,38; 17,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 10,78</t>
+          <t>-19,73; 15,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 14,42</t>
+          <t>-22,9; 15,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 17,47</t>
+          <t>-18,25; 18,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,35; 54,35</t>
+          <t>-6,48; 27,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 57,06</t>
+          <t>-53,9; 99,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 71,3</t>
+          <t>-58,71; 85,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 92,84</t>
+          <t>-59,18; 79,06</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-50,99; 92,21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-26,65; 281,7</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,51</t>
+          <t>35,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,92</t>
+          <t>34,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,47</t>
+          <t>39,91</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,19</t>
+          <t>43,07</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>146,75%</t>
+          <t>23,3</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>138,01%</t>
+          <t>359,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>186,43%</t>
+          <t>339,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>190,02%</t>
+          <t>571,64%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>555,98%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>161,97%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,21; 41,26</t>
+          <t>16,53; 53,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,84; 39,38</t>
+          <t>16,35; 53,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,55; 45,55</t>
+          <t>20,41; 58,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,01; 49,64</t>
+          <t>24,27; 61,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,43; 338,52</t>
+          <t>3,28; 53,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,98; 322,2</t>
+          <t>83,18; 1732,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>66,83; 445,0</t>
+          <t>73,98; 1609,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,87; 435,23</t>
+          <t>114,72; 2362,42</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>106,45; 2294,14</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 948,43</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>11,92%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29,88%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 10,3</t>
+          <t>-6,1; 8,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,01</t>
+          <t>-6,96; 9,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 11,18</t>
+          <t>-7,15; 9,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 11,87</t>
+          <t>-9,53; 10,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 68,91</t>
+          <t>-5,47; 11,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 37,93</t>
+          <t>-27,36; 71,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 66,95</t>
+          <t>-27,9; 69,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 67,6</t>
+          <t>-29,99; 71,04</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-37,15; 78,01</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-31,7; 121,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
